--- a/イベント登録_結合テスト.xlsx
+++ b/イベント登録_結合テスト.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/264754842b9ba5ef/デスクトップ/kadai/ketugou-test/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/264754842b9ba5ef/デスクトップ/kadai/integration-test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{A79FEBA2-56B8-4B68-A8E8-7A4AD747AB6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{472B8B74-D487-43A0-900C-86A832A03A15}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{A79FEBA2-56B8-4B68-A8E8-7A4AD747AB6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5084FAF2-9BC6-4497-A463-5F0EC46E7ACF}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" activeTab="2" xr2:uid="{B462155A-29E6-4E7A-8661-60DC22FDF8EA}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{B462155A-29E6-4E7A-8661-60DC22FDF8EA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -166,16 +166,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>1.XAMPPのMySQLを停止の状態にする</t>
-    <rPh sb="14" eb="16">
-      <t>テイシ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ジョウタイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>結合テスト</t>
     <rPh sb="0" eb="2">
       <t>ケツゴウ</t>
@@ -1105,32 +1095,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>開始日の入力値が表示されているか</t>
-    <rPh sb="0" eb="3">
-      <t>カイシビ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>終了日（任意）の入力値が表示されているか</t>
-    <rPh sb="0" eb="2">
-      <t>シュウリョウ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ビ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ニンイ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>内容の入力値が表示されているか</t>
     <rPh sb="0" eb="2">
       <t>ナイヨウ</t>
@@ -1453,6 +1417,45 @@
     </rPh>
     <rPh sb="23" eb="25">
       <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.ホスト名を変更する</t>
+    <rPh sb="5" eb="6">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>開始日時の入力値が表示されているか</t>
+    <rPh sb="0" eb="2">
+      <t>カイシ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ニチジ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>終了日時（任意）の入力値が表示されているか</t>
+    <rPh sb="0" eb="2">
+      <t>シュウリョウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ニチジ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ニンイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ヒョウジ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2326,8 +2329,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BB39F5B-1FA5-42C8-949E-8DCEC752D35D}">
   <dimension ref="A1:I46"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
-      <selection activeCell="A47" sqref="A47"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -2338,20 +2341,20 @@
     <col min="4" max="4" width="116.25" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="57.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="65.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.4140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.33203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.58203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="39.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -2378,12 +2381,12 @@
         <v>17</v>
       </c>
       <c r="C4" s="3">
-        <v>46001</v>
+        <v>46020</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -2424,19 +2427,19 @@
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G8" s="3">
-        <v>46002</v>
+        <v>46028</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I8" s="2"/>
     </row>
@@ -2446,7 +2449,7 @@
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
@@ -2459,7 +2462,7 @@
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
@@ -2475,19 +2478,19 @@
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G11" s="3">
-        <v>46002</v>
+        <v>46028</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I11" s="2"/>
     </row>
@@ -2497,7 +2500,7 @@
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
@@ -2510,7 +2513,7 @@
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
@@ -2526,19 +2529,19 @@
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E14" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F14" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="F14" s="2" t="s">
-        <v>69</v>
-      </c>
       <c r="G14" s="3">
-        <v>46002</v>
+        <v>46028</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I14" s="2"/>
     </row>
@@ -2548,7 +2551,7 @@
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
@@ -2561,7 +2564,7 @@
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
@@ -2577,19 +2580,19 @@
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G17" s="3">
-        <v>46002</v>
+        <v>46028</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I17" s="2"/>
     </row>
@@ -2599,7 +2602,7 @@
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
@@ -2612,7 +2615,7 @@
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
@@ -2628,19 +2631,19 @@
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G20" s="3">
-        <v>46002</v>
+        <v>46028</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I20" s="2"/>
     </row>
@@ -2650,7 +2653,7 @@
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
@@ -2663,7 +2666,7 @@
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
@@ -2679,19 +2682,19 @@
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G23" s="3">
-        <v>46002</v>
+        <v>46028</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I23" s="2"/>
     </row>
@@ -2701,7 +2704,7 @@
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
@@ -2714,7 +2717,7 @@
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
@@ -2730,19 +2733,19 @@
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G26" s="3">
-        <v>46002</v>
+        <v>46028</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I26" s="2"/>
     </row>
@@ -2752,7 +2755,7 @@
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
@@ -2765,7 +2768,7 @@
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
@@ -2781,19 +2784,19 @@
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G29" s="3">
-        <v>46002</v>
+        <v>46028</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I29" s="2"/>
     </row>
@@ -2803,7 +2806,7 @@
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
       <c r="E30" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
@@ -2816,7 +2819,7 @@
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
       <c r="E31" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
@@ -2832,19 +2835,19 @@
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G32" s="3">
-        <v>46002</v>
+        <v>46028</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I32" s="2"/>
     </row>
@@ -2854,7 +2857,7 @@
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
       <c r="E33" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
@@ -2867,7 +2870,7 @@
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
       <c r="E34" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
@@ -2883,19 +2886,19 @@
       </c>
       <c r="C35" s="2"/>
       <c r="D35" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G35" s="3">
-        <v>46002</v>
+        <v>46028</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I35" s="2"/>
     </row>
@@ -2905,7 +2908,7 @@
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
       <c r="E36" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
@@ -2918,7 +2921,7 @@
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
       <c r="E37" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F37" s="2"/>
       <c r="G37" s="2"/>
@@ -2934,19 +2937,19 @@
       </c>
       <c r="C38" s="2"/>
       <c r="D38" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G38" s="3">
-        <v>46002</v>
+        <v>46028</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I38" s="2"/>
     </row>
@@ -2956,7 +2959,7 @@
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
       <c r="E39" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F39" s="2"/>
       <c r="G39" s="2"/>
@@ -2969,7 +2972,7 @@
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
       <c r="E40" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
@@ -2985,19 +2988,19 @@
       </c>
       <c r="C41" s="2"/>
       <c r="D41" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G41" s="3">
-        <v>46002</v>
+        <v>46028</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I41" s="2"/>
     </row>
@@ -3007,7 +3010,7 @@
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
       <c r="E42" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F42" s="2"/>
       <c r="G42" s="2"/>
@@ -3023,19 +3026,19 @@
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s">
+        <v>28</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E43" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F43" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="G43" s="3">
-        <v>46002</v>
+        <v>46028</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I43" s="2"/>
     </row>
@@ -3045,7 +3048,7 @@
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
       <c r="E44" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F44" s="2"/>
       <c r="G44" s="2"/>
@@ -3061,19 +3064,19 @@
       </c>
       <c r="C45" s="2"/>
       <c r="D45" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F45" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E45" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="F45" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="G45" s="3">
-        <v>46002</v>
+        <v>46028</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I45" s="2"/>
     </row>
@@ -3106,7 +3109,7 @@
   <dimension ref="A1:I30"/>
   <sheetViews>
     <sheetView zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -3124,13 +3127,13 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -3157,12 +3160,12 @@
         <v>17</v>
       </c>
       <c r="C4" s="3">
-        <v>46001</v>
+        <v>46020</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -3201,19 +3204,19 @@
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E8" t="s">
+        <v>78</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="F8" s="2" t="s">
-        <v>84</v>
-      </c>
       <c r="G8" s="3">
-        <v>46002</v>
+        <v>46028</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I8" s="2"/>
     </row>
@@ -3223,7 +3226,7 @@
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="4"/>
@@ -3236,7 +3239,7 @@
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
@@ -3252,19 +3255,19 @@
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="E11" t="s">
+        <v>78</v>
+      </c>
+      <c r="F11" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="F11" s="2" t="s">
-        <v>84</v>
-      </c>
       <c r="G11" s="3">
-        <v>46002</v>
+        <v>46028</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I11" s="2"/>
     </row>
@@ -3274,7 +3277,7 @@
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="4"/>
@@ -3287,7 +3290,7 @@
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
@@ -3303,19 +3306,19 @@
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2" t="s">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="E14" t="s">
+        <v>78</v>
+      </c>
+      <c r="F14" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="F14" s="2" t="s">
-        <v>84</v>
-      </c>
       <c r="G14" s="3">
-        <v>46002</v>
+        <v>46028</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I14" s="2"/>
     </row>
@@ -3325,7 +3328,7 @@
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="4"/>
@@ -3338,7 +3341,7 @@
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
@@ -3354,19 +3357,19 @@
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E17" t="s">
+        <v>78</v>
+      </c>
+      <c r="F17" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="F17" s="2" t="s">
-        <v>84</v>
-      </c>
       <c r="G17" s="3">
-        <v>46002</v>
+        <v>46028</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I17" s="2"/>
     </row>
@@ -3376,7 +3379,7 @@
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="4"/>
@@ -3389,7 +3392,7 @@
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
@@ -3405,19 +3408,19 @@
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E20" t="s">
         <v>78</v>
       </c>
-      <c r="E20" t="s">
+      <c r="F20" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="F20" s="2" t="s">
-        <v>84</v>
-      </c>
       <c r="G20" s="3">
-        <v>46002</v>
+        <v>46028</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I20" s="2"/>
     </row>
@@ -3427,7 +3430,7 @@
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F21" s="2"/>
       <c r="G21" s="4"/>
@@ -3440,7 +3443,7 @@
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
@@ -3456,19 +3459,19 @@
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="G23" s="3">
-        <v>46002</v>
+        <v>46028</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I23" s="5"/>
     </row>
@@ -3478,7 +3481,7 @@
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
@@ -3494,19 +3497,19 @@
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G25" s="3">
-        <v>46002</v>
+        <v>46028</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I25" s="2"/>
     </row>
@@ -3516,7 +3519,7 @@
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
@@ -3532,19 +3535,19 @@
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s">
+        <v>28</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E27" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="G27" s="3">
-        <v>46002</v>
+        <v>46028</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I27" s="2"/>
     </row>
@@ -3554,7 +3557,7 @@
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
@@ -3570,19 +3573,19 @@
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F29" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E29" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="G29" s="3">
-        <v>46002</v>
+        <v>46028</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I29" s="2"/>
     </row>
@@ -3613,8 +3616,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55B9A8E5-C2A7-4B04-BCDA-0A5EB24D8FBF}">
   <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="79" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView topLeftCell="E1" zoomScale="79" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -3632,13 +3635,13 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -3665,12 +3668,12 @@
         <v>17</v>
       </c>
       <c r="C4" s="3">
-        <v>46001</v>
+        <v>46020</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -3711,19 +3714,19 @@
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G9" s="3">
-        <v>46002</v>
+        <v>46028</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I9" s="2"/>
     </row>
@@ -3733,7 +3736,7 @@
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
@@ -3749,19 +3752,19 @@
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G11" s="3">
-        <v>46002</v>
+        <v>46028</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I11" s="2"/>
     </row>
@@ -3771,7 +3774,7 @@
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
@@ -3787,19 +3790,19 @@
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G13" s="3">
-        <v>46002</v>
+        <v>46028</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I13" s="2"/>
     </row>
@@ -3823,19 +3826,19 @@
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G15" s="3">
-        <v>46002</v>
+        <v>46028</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I15" s="2"/>
     </row>
@@ -3845,7 +3848,7 @@
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
@@ -3861,19 +3864,19 @@
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>18</v>
+        <v>91</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G17" s="3">
-        <v>46002</v>
+        <v>46028</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I17" s="2"/>
     </row>
@@ -3885,7 +3888,7 @@
         <v>10</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
@@ -3898,7 +3901,7 @@
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
@@ -3914,19 +3917,19 @@
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>18</v>
+        <v>91</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G20" s="3">
-        <v>46002</v>
+        <v>46028</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I20" s="2"/>
     </row>
@@ -3936,7 +3939,7 @@
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
@@ -3949,7 +3952,7 @@
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
@@ -3965,19 +3968,19 @@
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s">
+        <v>28</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F23" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E23" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="G23" s="3">
-        <v>46002</v>
+        <v>46028</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I23" s="2"/>
     </row>
@@ -4001,19 +4004,19 @@
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F25" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E25" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="G25" s="3">
-        <v>46002</v>
+        <v>46028</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I25" s="2"/>
     </row>
